--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Itgb6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Itgb6.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H2">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5156803333333333</v>
+        <v>0.5531836666666666</v>
       </c>
       <c r="N2">
-        <v>1.547041</v>
+        <v>1.659551</v>
       </c>
       <c r="O2">
-        <v>0.05562891841766063</v>
+        <v>0.05946633586794156</v>
       </c>
       <c r="P2">
-        <v>0.05562891841766063</v>
+        <v>0.05946633586794157</v>
       </c>
       <c r="Q2">
-        <v>31.89206989877678</v>
+        <v>36.77396516255133</v>
       </c>
       <c r="R2">
-        <v>287.028629088991</v>
+        <v>330.965686462962</v>
       </c>
       <c r="S2">
-        <v>0.001754082271239679</v>
+        <v>0.002564178356480813</v>
       </c>
       <c r="T2">
-        <v>0.001754082271239679</v>
+        <v>0.002564178356480813</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H3">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>13.333195</v>
       </c>
       <c r="O3">
-        <v>0.4794386295526496</v>
+        <v>0.4777655233631019</v>
       </c>
       <c r="P3">
-        <v>0.4794386295526497</v>
+        <v>0.4777655233631019</v>
       </c>
       <c r="Q3">
-        <v>274.8622608670494</v>
+        <v>295.4500635626766</v>
       </c>
       <c r="R3">
-        <v>2473.760347803445</v>
+        <v>2659.05057206409</v>
       </c>
       <c r="S3">
-        <v>0.0151175831593872</v>
+        <v>0.02060116865449642</v>
       </c>
       <c r="T3">
-        <v>0.0151175831593872</v>
+        <v>0.02060116865449642</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H4">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.03264066666666667</v>
+        <v>0.08877066666666666</v>
       </c>
       <c r="N4">
-        <v>0.09792200000000001</v>
+        <v>0.266312</v>
       </c>
       <c r="O4">
-        <v>0.003521105742701173</v>
+        <v>0.009542700909862518</v>
       </c>
       <c r="P4">
-        <v>0.003521105742701173</v>
+        <v>0.00954270090986252</v>
       </c>
       <c r="Q4">
-        <v>2.018650616646889</v>
+        <v>5.901203524549333</v>
       </c>
       <c r="R4">
-        <v>18.167855549822</v>
+        <v>53.110831720944</v>
       </c>
       <c r="S4">
-        <v>0.0001110269502646225</v>
+        <v>0.000411479651105099</v>
       </c>
       <c r="T4">
-        <v>0.0001110269502646225</v>
+        <v>0.000411479651105099</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H5">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I5">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J5">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.219107</v>
+        <v>4.073266333333334</v>
       </c>
       <c r="N5">
-        <v>12.657321</v>
+        <v>12.219799</v>
       </c>
       <c r="O5">
-        <v>0.4551353695830574</v>
+        <v>0.4378694427424867</v>
       </c>
       <c r="P5">
-        <v>0.4551353695830574</v>
+        <v>0.4378694427424867</v>
       </c>
       <c r="Q5">
-        <v>260.929197133919</v>
+        <v>270.7783386707487</v>
       </c>
       <c r="R5">
-        <v>2348.362774205271</v>
+        <v>2437.005048036738</v>
       </c>
       <c r="S5">
-        <v>0.01435125660372912</v>
+        <v>0.01888085639811364</v>
       </c>
       <c r="T5">
-        <v>0.01435125660372911</v>
+        <v>0.01888085639811363</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H6">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I6">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J6">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05817833333333333</v>
+        <v>0.1428486666666667</v>
       </c>
       <c r="N6">
-        <v>0.174535</v>
+        <v>0.428546</v>
       </c>
       <c r="O6">
-        <v>0.006275976703931181</v>
+        <v>0.01535599711660737</v>
       </c>
       <c r="P6">
-        <v>0.006275976703931182</v>
+        <v>0.01535599711660737</v>
       </c>
       <c r="Q6">
-        <v>3.598018681976111</v>
+        <v>9.496144242961332</v>
       </c>
       <c r="R6">
-        <v>32.382168137785</v>
+        <v>85.46529818665199</v>
       </c>
       <c r="S6">
-        <v>0.0001978931063952523</v>
+        <v>0.0006621480014512518</v>
       </c>
       <c r="T6">
-        <v>0.0001978931063952522</v>
+        <v>0.0006621480014512517</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>4084.137207</v>
       </c>
       <c r="I7">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J7">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5156803333333333</v>
+        <v>0.5531836666666666</v>
       </c>
       <c r="N7">
-        <v>1.547041</v>
+        <v>1.659551</v>
       </c>
       <c r="O7">
-        <v>0.05562891841766063</v>
+        <v>0.05946633586794156</v>
       </c>
       <c r="P7">
-        <v>0.05562891841766063</v>
+        <v>0.05946633586794157</v>
       </c>
       <c r="Q7">
-        <v>702.0364120949429</v>
+        <v>753.0926651126729</v>
       </c>
       <c r="R7">
-        <v>6318.327708854486</v>
+        <v>6777.833986014057</v>
       </c>
       <c r="S7">
-        <v>0.03861240829237253</v>
+        <v>0.05251171321260897</v>
       </c>
       <c r="T7">
-        <v>0.03861240829237254</v>
+        <v>0.05251171321260897</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I8">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J8">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>13.333195</v>
       </c>
       <c r="O8">
-        <v>0.4794386295526496</v>
+        <v>0.4777655233631019</v>
       </c>
       <c r="P8">
-        <v>0.4794386295526497</v>
+        <v>0.4777655233631019</v>
       </c>
       <c r="Q8">
         <v>6050.510865298484</v>
@@ -948,10 +948,10 @@
         <v>54454.59778768636</v>
       </c>
       <c r="S8">
-        <v>0.3327815934948201</v>
+        <v>0.4218905668146335</v>
       </c>
       <c r="T8">
-        <v>0.3327815934948202</v>
+        <v>0.4218905668146335</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I9">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J9">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.03264066666666667</v>
+        <v>0.08877066666666666</v>
       </c>
       <c r="N9">
-        <v>0.09792200000000001</v>
+        <v>0.266312</v>
       </c>
       <c r="O9">
-        <v>0.003521105742701173</v>
+        <v>0.009542700909862518</v>
       </c>
       <c r="P9">
-        <v>0.003521105742701173</v>
+        <v>0.00954270090986252</v>
       </c>
       <c r="Q9">
-        <v>44.436320398206</v>
+        <v>120.850527541176</v>
       </c>
       <c r="R9">
-        <v>399.926883583854</v>
+        <v>1087.654747870584</v>
       </c>
       <c r="S9">
-        <v>0.002444023296606686</v>
+        <v>0.008426676473983818</v>
       </c>
       <c r="T9">
-        <v>0.002444023296606686</v>
+        <v>0.008426676473983818</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I10">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J10">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.219107</v>
+        <v>4.073266333333334</v>
       </c>
       <c r="N10">
-        <v>12.657321</v>
+        <v>12.219799</v>
       </c>
       <c r="O10">
-        <v>0.4551353695830574</v>
+        <v>0.4378694427424867</v>
       </c>
       <c r="P10">
-        <v>0.4551353695830574</v>
+        <v>0.4378694427424867</v>
       </c>
       <c r="Q10">
-        <v>5743.803959671382</v>
+        <v>5545.259528662376</v>
       </c>
       <c r="R10">
-        <v>51694.23563704245</v>
+        <v>49907.33575796139</v>
       </c>
       <c r="S10">
-        <v>0.3159125364742247</v>
+        <v>0.3866603560865113</v>
       </c>
       <c r="T10">
-        <v>0.3159125364742247</v>
+        <v>0.3866603560865113</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I11">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J11">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.05817833333333333</v>
+        <v>0.1428486666666667</v>
       </c>
       <c r="N11">
-        <v>0.174535</v>
+        <v>0.428546</v>
       </c>
       <c r="O11">
-        <v>0.006275976703931181</v>
+        <v>0.01535599711660737</v>
       </c>
       <c r="P11">
-        <v>0.006275976703931182</v>
+        <v>0.01535599711660737</v>
       </c>
       <c r="Q11">
-        <v>79.20276526930499</v>
+        <v>194.471184834558</v>
       </c>
       <c r="R11">
-        <v>712.8248874237449</v>
+        <v>1750.240663511022</v>
       </c>
       <c r="S11">
-        <v>0.004356197852099098</v>
+        <v>0.0135601042995429</v>
       </c>
       <c r="T11">
-        <v>0.004356197852099099</v>
+        <v>0.0135601042995429</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H12">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I12">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J12">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5156803333333333</v>
+        <v>0.5531836666666666</v>
       </c>
       <c r="N12">
-        <v>1.547041</v>
+        <v>1.659551</v>
       </c>
       <c r="O12">
-        <v>0.05562891841766063</v>
+        <v>0.05946633586794156</v>
       </c>
       <c r="P12">
-        <v>0.05562891841766063</v>
+        <v>0.05946633586794157</v>
       </c>
       <c r="Q12">
-        <v>129.4393806485247</v>
+        <v>24.799838916904</v>
       </c>
       <c r="R12">
-        <v>1164.954425836722</v>
+        <v>223.198550252136</v>
       </c>
       <c r="S12">
-        <v>0.007119240723993584</v>
+        <v>0.001729245402660406</v>
       </c>
       <c r="T12">
-        <v>0.007119240723993582</v>
+        <v>0.001729245402660405</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H13">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I13">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J13">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>13.333195</v>
       </c>
       <c r="O13">
-        <v>0.4794386295526496</v>
+        <v>0.4777655233631019</v>
       </c>
       <c r="P13">
-        <v>0.4794386295526497</v>
+        <v>0.4777655233631019</v>
       </c>
       <c r="Q13">
-        <v>1115.575154676577</v>
+        <v>199.24731945428</v>
       </c>
       <c r="R13">
-        <v>10040.17639208919</v>
+        <v>1793.22587508852</v>
       </c>
       <c r="S13">
-        <v>0.06135727807145876</v>
+        <v>0.01389313504467456</v>
       </c>
       <c r="T13">
-        <v>0.06135727807145875</v>
+        <v>0.01389313504467455</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H14">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I14">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J14">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.03264066666666667</v>
+        <v>0.08877066666666666</v>
       </c>
       <c r="N14">
-        <v>0.09792200000000001</v>
+        <v>0.266312</v>
       </c>
       <c r="O14">
-        <v>0.003521105742701173</v>
+        <v>0.009542700909862518</v>
       </c>
       <c r="P14">
-        <v>0.003521105742701173</v>
+        <v>0.00954270090986252</v>
       </c>
       <c r="Q14">
-        <v>8.193036274969334</v>
+        <v>3.979687699648</v>
       </c>
       <c r="R14">
-        <v>73.737326474724</v>
+        <v>35.817189296832</v>
       </c>
       <c r="S14">
-        <v>0.0004506217289489418</v>
+        <v>0.0002774960225225364</v>
       </c>
       <c r="T14">
-        <v>0.0004506217289489417</v>
+        <v>0.0002774960225225364</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H15">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I15">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J15">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.219107</v>
+        <v>4.073266333333334</v>
       </c>
       <c r="N15">
-        <v>12.657321</v>
+        <v>12.219799</v>
       </c>
       <c r="O15">
-        <v>0.4551353695830574</v>
+        <v>0.4378694427424867</v>
       </c>
       <c r="P15">
-        <v>0.4551353695830574</v>
+        <v>0.4378694427424867</v>
       </c>
       <c r="Q15">
-        <v>1059.025449816498</v>
+        <v>182.609059195496</v>
       </c>
       <c r="R15">
-        <v>9531.229048348481</v>
+        <v>1643.481532759464</v>
       </c>
       <c r="S15">
-        <v>0.05824701163049925</v>
+        <v>0.01273298093411063</v>
       </c>
       <c r="T15">
-        <v>0.05824701163049924</v>
+        <v>0.01273298093411062</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H16">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I16">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J16">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.05817833333333333</v>
+        <v>0.1428486666666667</v>
       </c>
       <c r="N16">
-        <v>0.174535</v>
+        <v>0.428546</v>
       </c>
       <c r="O16">
-        <v>0.006275976703931181</v>
+        <v>0.01535599711660737</v>
       </c>
       <c r="P16">
-        <v>0.006275976703931182</v>
+        <v>0.01535599711660737</v>
       </c>
       <c r="Q16">
-        <v>14.60316972949667</v>
+        <v>6.404064574383999</v>
       </c>
       <c r="R16">
-        <v>131.42852756547</v>
+        <v>57.636581169456</v>
       </c>
       <c r="S16">
-        <v>0.0008031827726364202</v>
+        <v>0.0004465431916997466</v>
       </c>
       <c r="T16">
-        <v>0.0008031827726364202</v>
+        <v>0.0004465431916997465</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H17">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I17">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J17">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5156803333333333</v>
+        <v>0.5531836666666666</v>
       </c>
       <c r="N17">
-        <v>1.547041</v>
+        <v>1.659551</v>
       </c>
       <c r="O17">
-        <v>0.05562891841766063</v>
+        <v>0.05946633586794156</v>
       </c>
       <c r="P17">
-        <v>0.05562891841766063</v>
+        <v>0.05946633586794157</v>
       </c>
       <c r="Q17">
-        <v>13.96324621638977</v>
+        <v>29.225036637057</v>
       </c>
       <c r="R17">
-        <v>125.669215947508</v>
+        <v>263.025329733513</v>
       </c>
       <c r="S17">
-        <v>0.0007679866096763839</v>
+        <v>0.002037805988036707</v>
       </c>
       <c r="T17">
-        <v>0.0007679866096763839</v>
+        <v>0.002037805988036707</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H18">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I18">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J18">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>13.333195</v>
       </c>
       <c r="O18">
-        <v>0.4794386295526496</v>
+        <v>0.4777655233631019</v>
       </c>
       <c r="P18">
-        <v>0.4794386295526497</v>
+        <v>0.4777655233631019</v>
       </c>
       <c r="Q18">
-        <v>120.3424373601844</v>
+        <v>234.800323921365</v>
       </c>
       <c r="R18">
-        <v>1083.08193624166</v>
+        <v>2113.202915292286</v>
       </c>
       <c r="S18">
-        <v>0.006618903587043985</v>
+        <v>0.01637217814376364</v>
       </c>
       <c r="T18">
-        <v>0.006618903587043986</v>
+        <v>0.01637217814376363</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H19">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I19">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J19">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1612,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.03264066666666667</v>
+        <v>0.08877066666666666</v>
       </c>
       <c r="N19">
-        <v>0.09792200000000001</v>
+        <v>0.266312</v>
       </c>
       <c r="O19">
-        <v>0.003521105742701173</v>
+        <v>0.009542700909862518</v>
       </c>
       <c r="P19">
-        <v>0.003521105742701173</v>
+        <v>0.00954270090986252</v>
       </c>
       <c r="Q19">
-        <v>0.8838220809928888</v>
+        <v>4.689809446584</v>
       </c>
       <c r="R19">
-        <v>7.954398728936</v>
+        <v>42.208285019256</v>
       </c>
       <c r="S19">
-        <v>4.861072511506216E-05</v>
+        <v>0.0003270114556805013</v>
       </c>
       <c r="T19">
-        <v>4.861072511506216E-05</v>
+        <v>0.0003270114556805013</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H20">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I20">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J20">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.219107</v>
+        <v>4.073266333333334</v>
       </c>
       <c r="N20">
-        <v>12.657321</v>
+        <v>12.219799</v>
       </c>
       <c r="O20">
-        <v>0.4551353695830574</v>
+        <v>0.4378694427424867</v>
       </c>
       <c r="P20">
-        <v>0.4551353695830574</v>
+        <v>0.4378694427424867</v>
       </c>
       <c r="Q20">
-        <v>114.242149731572</v>
+        <v>215.1931898883931</v>
       </c>
       <c r="R20">
-        <v>1028.179347584148</v>
+        <v>1936.738708995537</v>
       </c>
       <c r="S20">
-        <v>0.006283384242806556</v>
+        <v>0.01500501013515401</v>
       </c>
       <c r="T20">
-        <v>0.006283384242806556</v>
+        <v>0.01500501013515401</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H21">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I21">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J21">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.05817833333333333</v>
+        <v>0.1428486666666667</v>
       </c>
       <c r="N21">
-        <v>0.174535</v>
+        <v>0.428546</v>
       </c>
       <c r="O21">
-        <v>0.006275976703931181</v>
+        <v>0.01535599711660737</v>
       </c>
       <c r="P21">
-        <v>0.006275976703931182</v>
+        <v>0.01535599711660737</v>
       </c>
       <c r="Q21">
-        <v>1.575313891731111</v>
+        <v>7.546783769022</v>
       </c>
       <c r="R21">
-        <v>14.17782502558</v>
+        <v>67.92105392119801</v>
       </c>
       <c r="S21">
-        <v>8.664317424028689E-05</v>
+        <v>0.0005262228186715436</v>
       </c>
       <c r="T21">
-        <v>8.66431742402869E-05</v>
+        <v>0.0005262228186715436</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H22">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I22">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J22">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.5156803333333333</v>
+        <v>0.5531836666666666</v>
       </c>
       <c r="N22">
-        <v>1.547041</v>
+        <v>1.659551</v>
       </c>
       <c r="O22">
-        <v>0.05562891841766063</v>
+        <v>0.05946633586794156</v>
       </c>
       <c r="P22">
-        <v>0.05562891841766063</v>
+        <v>0.05946633586794157</v>
       </c>
       <c r="Q22">
-        <v>134.0931462394701</v>
+        <v>8.940341076165888</v>
       </c>
       <c r="R22">
-        <v>1206.838316155231</v>
+        <v>80.463069685493</v>
       </c>
       <c r="S22">
-        <v>0.007375200520378444</v>
+        <v>0.0006233929081546579</v>
       </c>
       <c r="T22">
-        <v>0.007375200520378444</v>
+        <v>0.0006233929081546579</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H23">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I23">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J23">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>13.333195</v>
       </c>
       <c r="O23">
-        <v>0.4794386295526496</v>
+        <v>0.4777655233631019</v>
       </c>
       <c r="P23">
-        <v>0.4794386295526497</v>
+        <v>0.4777655233631019</v>
       </c>
       <c r="Q23">
-        <v>1155.683700027583</v>
+        <v>71.82865180704277</v>
       </c>
       <c r="R23">
-        <v>10401.15330024824</v>
+        <v>646.457866263385</v>
       </c>
       <c r="S23">
-        <v>0.06356327123993952</v>
+        <v>0.005008474705533692</v>
       </c>
       <c r="T23">
-        <v>0.06356327123993953</v>
+        <v>0.005008474705533691</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H24">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I24">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J24">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1922,28 +1922,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.03264066666666667</v>
+        <v>0.08877066666666666</v>
       </c>
       <c r="N24">
-        <v>0.09792200000000001</v>
+        <v>0.266312</v>
       </c>
       <c r="O24">
-        <v>0.003521105742701173</v>
+        <v>0.009542700909862518</v>
       </c>
       <c r="P24">
-        <v>0.003521105742701173</v>
+        <v>0.00954270090986252</v>
       </c>
       <c r="Q24">
-        <v>8.487602504433559</v>
+        <v>1.434677278779555</v>
       </c>
       <c r="R24">
-        <v>76.38842253990201</v>
+        <v>12.912095509016</v>
       </c>
       <c r="S24">
-        <v>0.0004668230417658602</v>
+        <v>0.0001000373065705623</v>
       </c>
       <c r="T24">
-        <v>0.0004668230417658602</v>
+        <v>0.0001000373065705623</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H25">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I25">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J25">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.219107</v>
+        <v>4.073266333333334</v>
       </c>
       <c r="N25">
-        <v>12.657321</v>
+        <v>12.219799</v>
       </c>
       <c r="O25">
-        <v>0.4551353695830574</v>
+        <v>0.4378694427424867</v>
       </c>
       <c r="P25">
-        <v>0.4551353695830574</v>
+        <v>0.4378694427424867</v>
       </c>
       <c r="Q25">
-        <v>1097.100849850079</v>
+        <v>65.83055955628411</v>
       </c>
       <c r="R25">
-        <v>9873.907648650711</v>
+        <v>592.4750360065569</v>
       </c>
       <c r="S25">
-        <v>0.06034118063179775</v>
+        <v>0.004590239188597025</v>
       </c>
       <c r="T25">
-        <v>0.06034118063179775</v>
+        <v>0.004590239188597025</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H26">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I26">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J26">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.05817833333333333</v>
+        <v>0.1428486666666667</v>
       </c>
       <c r="N26">
-        <v>0.174535</v>
+        <v>0.428546</v>
       </c>
       <c r="O26">
-        <v>0.006275976703931181</v>
+        <v>0.01535599711660737</v>
       </c>
       <c r="P26">
-        <v>0.006275976703931182</v>
+        <v>0.01535599711660737</v>
       </c>
       <c r="Q26">
-        <v>15.12820104890945</v>
+        <v>2.308665058697555</v>
       </c>
       <c r="R26">
-        <v>136.153809440185</v>
+        <v>20.777985528278</v>
       </c>
       <c r="S26">
-        <v>0.0008320597985601234</v>
+        <v>0.0001609788052419275</v>
       </c>
       <c r="T26">
-        <v>0.0008320597985601235</v>
+        <v>0.0001609788052419275</v>
       </c>
     </row>
   </sheetData>
